--- a/testdata/SampleData.xlsx
+++ b/testdata/SampleData.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2655CF0E43E1348E/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9BFA4B-4411-4C6C-8831-2C09BDA52A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF7EE46-32B1-4B35-A12E-5E46EF541A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="1128" windowWidth="17280" windowHeight="10248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="eDLFgBZR50WvvflsDPz1IH8KzUUUmAqDas49qeqv+rY="/>
     </ext>
@@ -36,20 +50,20 @@
     <t>res</t>
   </si>
   <si>
+    <t>BBSSL92</t>
+  </si>
+  <si>
+    <t>bbssl@123</t>
+  </si>
+  <si>
     <t>valid</t>
-  </si>
-  <si>
-    <t>BBSSL4</t>
-  </si>
-  <si>
-    <t>bbssl@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,20 +364,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,18 +388,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{98961917-20C4-4C9C-B860-BCBFE47149F2}"/>

--- a/testdata/SampleData.xlsx
+++ b/testdata/SampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2655CF0E43E1348E/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF7EE46-32B1-4B35-A12E-5E46EF541A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DF0226-0617-485D-BC81-EE2FED4D51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1776" windowWidth="17280" windowHeight="10248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -63,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -121,6 +119,61 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -131,29 +184,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -164,6 +251,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9357928-895F-48B8-91F8-9FBD691D4002}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
+  <autoFilter ref="A1:C2" xr:uid="{E9357928-895F-48B8-91F8-9FBD691D4002}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4374F49D-EAB8-4B5F-86EF-A2226D26CDF5}" name="Username"/>
+    <tableColumn id="2" xr3:uid="{F091E5DA-93D9-4123-AECB-0EDDBEA1F711}" name="Password"/>
+    <tableColumn id="3" xr3:uid="{3E966894-9BBD-4C9E-84FA-DE828E65A577}" name="res"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,35 +466,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -408,5 +507,8 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_#000000 Classification: Public</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/testdata/SampleData.xlsx
+++ b/testdata/SampleData.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DF0226-0617-485D-BC81-EE2FED4D51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1776" windowWidth="17280" windowHeight="10248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,17 +18,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="eDLFgBZR50WvvflsDPz1IH8KzUUUmAqDas49qeqv+rY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -56,16 +46,29 @@
   <si>
     <t>valid</t>
   </si>
+  <si>
+    <t>BBSSL93</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,21 +76,160 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +242,194 @@
         <bgColor rgb="FFBDD6EE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -111,155 +439,348 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9357928-895F-48B8-91F8-9FBD691D4002}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
-  <autoFilter ref="A1:C2" xr:uid="{E9357928-895F-48B8-91F8-9FBD691D4002}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C3" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4374F49D-EAB8-4B5F-86EF-A2226D26CDF5}" name="Username"/>
-    <tableColumn id="2" xr3:uid="{F091E5DA-93D9-4123-AECB-0EDDBEA1F711}" name="Password"/>
-    <tableColumn id="3" xr3:uid="{3E966894-9BBD-4C9E-84FA-DE828E65A577}" name="res"/>
+    <tableColumn id="1" name="Username"/>
+    <tableColumn id="2" name="Password"/>
+    <tableColumn id="3" name="res"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -457,58 +978,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.4380952380952" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.4380952380952" customWidth="1"/>
+    <col min="2" max="2" width="55.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{98961917-20C4-4C9C-B860-BCBFE47149F2}"/>
+    <hyperlink ref="B2" r:id="rId2" display="bbssl@123"/>
+    <hyperlink ref="B3" r:id="rId2" display="bbssl@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;L_x000D_#000000 Classification: Public</oddFooter>
+    <oddFooter>&amp;L
+#000000 Classification: Public</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>